--- a/data/pca/factorExposure/factorExposure_2018-10-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.04017675277943697</v>
+        <v>0.03558178666389444</v>
       </c>
       <c r="C2">
-        <v>-0.05193304568706008</v>
+        <v>0.005268194691010109</v>
       </c>
       <c r="D2">
-        <v>-0.02948447243835392</v>
+        <v>0.01060666485962172</v>
       </c>
       <c r="E2">
-        <v>-0.06194741067039999</v>
+        <v>-0.01556547555838502</v>
       </c>
       <c r="F2">
-        <v>-0.1344676310670506</v>
+        <v>-0.0276319856478075</v>
       </c>
       <c r="G2">
-        <v>0.1124170527633271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07816400302499416</v>
+      </c>
+      <c r="H2">
+        <v>-0.02397113372618476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1411534798687755</v>
+        <v>0.08741472254090003</v>
       </c>
       <c r="C3">
-        <v>-0.01376234254609818</v>
+        <v>-0.03901464923413166</v>
       </c>
       <c r="D3">
-        <v>-0.02813184579286332</v>
+        <v>0.02656601740256182</v>
       </c>
       <c r="E3">
-        <v>-0.09890609469192259</v>
+        <v>-0.009324134808553422</v>
       </c>
       <c r="F3">
-        <v>-0.3607601940996025</v>
+        <v>0.002302609572532707</v>
       </c>
       <c r="G3">
-        <v>0.2598055663578233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2741989236412684</v>
+      </c>
+      <c r="H3">
+        <v>-0.0534351290331125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04403756514652805</v>
+        <v>0.04567309183655444</v>
       </c>
       <c r="C4">
-        <v>-0.03469516825378155</v>
+        <v>-0.006269633005360492</v>
       </c>
       <c r="D4">
-        <v>0.008177942840292654</v>
+        <v>0.02207245918697927</v>
       </c>
       <c r="E4">
-        <v>-0.06646460696378825</v>
+        <v>0.01903237558167921</v>
       </c>
       <c r="F4">
-        <v>-0.05355144250818052</v>
+        <v>-0.06292980921024673</v>
       </c>
       <c r="G4">
-        <v>0.05408946197577143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03743558856025733</v>
+      </c>
+      <c r="H4">
+        <v>-0.02972393034218364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.009548361264407331</v>
+        <v>0.02989934807481359</v>
       </c>
       <c r="C6">
-        <v>-0.0005683487458737024</v>
+        <v>-0.004196105824137155</v>
       </c>
       <c r="D6">
-        <v>-0.009975781934345363</v>
+        <v>0.03053610989030377</v>
       </c>
       <c r="E6">
-        <v>-0.007262526471485181</v>
+        <v>0.002901874098214477</v>
       </c>
       <c r="F6">
-        <v>-0.01168405344747341</v>
+        <v>-0.04066178555197432</v>
       </c>
       <c r="G6">
-        <v>-0.01710192331517504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.006100628733479013</v>
+      </c>
+      <c r="H6">
+        <v>-0.05244319957537216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02706111558785201</v>
+        <v>0.02327910249726987</v>
       </c>
       <c r="C7">
-        <v>-0.01890620561450081</v>
+        <v>-0.003908883231822055</v>
       </c>
       <c r="D7">
-        <v>-0.0249412195274577</v>
+        <v>0.0171756388623393</v>
       </c>
       <c r="E7">
-        <v>-0.04376765579798233</v>
+        <v>0.03468681456766833</v>
       </c>
       <c r="F7">
-        <v>-0.06857242293111646</v>
+        <v>-0.0271025907669968</v>
       </c>
       <c r="G7">
-        <v>0.05604356389303686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03353022777036145</v>
+      </c>
+      <c r="H7">
+        <v>-0.02084978504376084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009206880022460477</v>
+        <v>0.002661719553037491</v>
       </c>
       <c r="C8">
-        <v>-0.00791772022129896</v>
+        <v>-0.001549608694837967</v>
       </c>
       <c r="D8">
-        <v>0.008886602597870469</v>
+        <v>0.01567628510536972</v>
       </c>
       <c r="E8">
-        <v>-0.07454520625780985</v>
+        <v>0.01191765512514973</v>
       </c>
       <c r="F8">
-        <v>-0.09028962933637892</v>
+        <v>-0.02887796107715775</v>
       </c>
       <c r="G8">
-        <v>0.06725890977937365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05136648084692522</v>
+      </c>
+      <c r="H8">
+        <v>-0.01289809577507599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03565836724536075</v>
+        <v>0.03628468447243513</v>
       </c>
       <c r="C9">
-        <v>-0.02752132329350292</v>
+        <v>-0.008352382271271146</v>
       </c>
       <c r="D9">
-        <v>0.02278866871282204</v>
+        <v>0.01956683107021111</v>
       </c>
       <c r="E9">
-        <v>-0.06848569360222123</v>
+        <v>0.01835662234429161</v>
       </c>
       <c r="F9">
-        <v>-0.0665583020811444</v>
+        <v>-0.04052132089514783</v>
       </c>
       <c r="G9">
-        <v>0.03660766787312024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05740040548673072</v>
+      </c>
+      <c r="H9">
+        <v>-0.03427376086782881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05269046433745594</v>
+        <v>0.0704468225030397</v>
       </c>
       <c r="C10">
-        <v>-0.05691380445157763</v>
+        <v>-0.04216622301535947</v>
       </c>
       <c r="D10">
-        <v>0.01790196554298815</v>
+        <v>-0.1455365345883624</v>
       </c>
       <c r="E10">
-        <v>0.1159439252226892</v>
+        <v>-0.01246136650904026</v>
       </c>
       <c r="F10">
-        <v>-0.06928997687744143</v>
+        <v>0.09078799368999867</v>
       </c>
       <c r="G10">
-        <v>-0.008739905476283142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0387467033698855</v>
+      </c>
+      <c r="H10">
+        <v>-0.00986370710032854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03151691210982217</v>
+        <v>0.02221786356569865</v>
       </c>
       <c r="C11">
-        <v>-0.01106425939341331</v>
+        <v>-0.0146528946839252</v>
       </c>
       <c r="D11">
-        <v>-0.01155818834594387</v>
+        <v>0.02955265495343655</v>
       </c>
       <c r="E11">
-        <v>-0.03463434515972179</v>
+        <v>-0.00543130973486622</v>
       </c>
       <c r="F11">
-        <v>-0.03669520643751746</v>
+        <v>-0.02584022781141192</v>
       </c>
       <c r="G11">
-        <v>0.01911357283273923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0315420949738242</v>
+      </c>
+      <c r="H11">
+        <v>-0.0304589024573263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03879510625488918</v>
+        <v>0.03099891014639571</v>
       </c>
       <c r="C12">
-        <v>-0.01155524570941525</v>
+        <v>-0.01489358157136788</v>
       </c>
       <c r="D12">
-        <v>-0.001910058555130405</v>
+        <v>0.03012057663947936</v>
       </c>
       <c r="E12">
-        <v>-0.04763620891645004</v>
+        <v>0.00457069700002466</v>
       </c>
       <c r="F12">
-        <v>-0.02325436389058289</v>
+        <v>-0.02906224493066326</v>
       </c>
       <c r="G12">
-        <v>0.01270023571433296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006242512028185842</v>
+      </c>
+      <c r="H12">
+        <v>-0.0165373286540461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02257030650942461</v>
+        <v>0.02895906993447004</v>
       </c>
       <c r="C13">
-        <v>-0.02096937094694607</v>
+        <v>0.006368999748810198</v>
       </c>
       <c r="D13">
-        <v>-0.02956444171328129</v>
+        <v>0.001839049741954909</v>
       </c>
       <c r="E13">
-        <v>-0.03124932618270631</v>
+        <v>-0.01562522261837089</v>
       </c>
       <c r="F13">
-        <v>-0.08709624662864993</v>
+        <v>-0.02061223942142344</v>
       </c>
       <c r="G13">
-        <v>0.05825360456474516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06098580178491109</v>
+      </c>
+      <c r="H13">
+        <v>-0.03018584686773565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01282426369799807</v>
+        <v>0.01648476323811063</v>
       </c>
       <c r="C14">
-        <v>-0.02179067725474419</v>
+        <v>-0.004398327068488201</v>
       </c>
       <c r="D14">
-        <v>-0.001429175382726353</v>
+        <v>0.001068415414492885</v>
       </c>
       <c r="E14">
-        <v>-0.04136165107652801</v>
+        <v>0.00697799593683059</v>
       </c>
       <c r="F14">
-        <v>-0.06246426816692734</v>
+        <v>-0.02690911557450143</v>
       </c>
       <c r="G14">
-        <v>0.06016785658750777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03913459809966135</v>
+      </c>
+      <c r="H14">
+        <v>0.01792614864488081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02499191988435288</v>
+        <v>0.02253618670844843</v>
       </c>
       <c r="C16">
-        <v>-0.01194939197007734</v>
+        <v>-0.01484617000063593</v>
       </c>
       <c r="D16">
-        <v>-0.01085470087271762</v>
+        <v>0.02955427121030891</v>
       </c>
       <c r="E16">
-        <v>-0.03702569769602066</v>
+        <v>-0.0009906664368182954</v>
       </c>
       <c r="F16">
-        <v>-0.03685877387748628</v>
+        <v>-0.0286905259931454</v>
       </c>
       <c r="G16">
-        <v>0.02562891965775467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02441142652146806</v>
+      </c>
+      <c r="H16">
+        <v>-0.0234268087814542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03499518929102793</v>
+        <v>0.03311378716302811</v>
       </c>
       <c r="C19">
-        <v>-0.01263974549049521</v>
+        <v>-0.008551273820164502</v>
       </c>
       <c r="D19">
-        <v>-0.01727668013700595</v>
+        <v>0.007347513623781963</v>
       </c>
       <c r="E19">
-        <v>-0.043359424727764</v>
+        <v>-0.002488170838041108</v>
       </c>
       <c r="F19">
-        <v>-0.09381779947516791</v>
+        <v>-0.03342693032450122</v>
       </c>
       <c r="G19">
-        <v>0.06219563710482652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06290440328317103</v>
+      </c>
+      <c r="H19">
+        <v>-0.04409287820823692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0008943466582100784</v>
+        <v>0.01002747625297554</v>
       </c>
       <c r="C20">
-        <v>-0.01534186187902556</v>
+        <v>0.004921596952656483</v>
       </c>
       <c r="D20">
-        <v>-0.001685811435989202</v>
+        <v>0.007492681922176912</v>
       </c>
       <c r="E20">
-        <v>-0.04448994140757211</v>
+        <v>0.002962090783988244</v>
       </c>
       <c r="F20">
-        <v>-0.05864842669043509</v>
+        <v>-0.01789638808550572</v>
       </c>
       <c r="G20">
-        <v>0.07274635386911467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04719854318346223</v>
+      </c>
+      <c r="H20">
+        <v>0.008704391103511542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001341067762437793</v>
+        <v>0.02187181051892895</v>
       </c>
       <c r="C21">
-        <v>0.001675985768479319</v>
+        <v>0.001179056704919531</v>
       </c>
       <c r="D21">
-        <v>-0.007913188057600561</v>
+        <v>-0.0006927530356151635</v>
       </c>
       <c r="E21">
-        <v>-0.03728778307305877</v>
+        <v>0.0114205855649974</v>
       </c>
       <c r="F21">
-        <v>-0.08664591971911109</v>
+        <v>-0.00932407338522666</v>
       </c>
       <c r="G21">
-        <v>0.02615031336385622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05469264477525629</v>
+      </c>
+      <c r="H21">
+        <v>-0.01498632590038444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0270041870272897</v>
+        <v>0.02309976641388337</v>
       </c>
       <c r="C24">
-        <v>-0.01082131867632447</v>
+        <v>-0.009867986030985976</v>
       </c>
       <c r="D24">
-        <v>-0.0072174517859324</v>
+        <v>0.02718651097206788</v>
       </c>
       <c r="E24">
-        <v>-0.03055355080482631</v>
+        <v>-0.0006113763662742873</v>
       </c>
       <c r="F24">
-        <v>-0.04031150556734079</v>
+        <v>-0.02337014609694459</v>
       </c>
       <c r="G24">
-        <v>0.01244590237129277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02643788007683992</v>
+      </c>
+      <c r="H24">
+        <v>-0.03121054530122587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02943235563326847</v>
+        <v>0.0330635769012438</v>
       </c>
       <c r="C25">
-        <v>-0.009944676655919459</v>
+        <v>-0.01037948215262714</v>
       </c>
       <c r="D25">
-        <v>-0.005109881243611974</v>
+        <v>0.02060227731360356</v>
       </c>
       <c r="E25">
-        <v>-0.03579299554029871</v>
+        <v>-0.0001330747195441425</v>
       </c>
       <c r="F25">
-        <v>-0.04403578635006195</v>
+        <v>-0.02782054025276896</v>
       </c>
       <c r="G25">
-        <v>0.004376107396837525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03210751354697717</v>
+      </c>
+      <c r="H25">
+        <v>-0.03410118607832096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01695377957942049</v>
+        <v>0.02127567423301201</v>
       </c>
       <c r="C26">
-        <v>0.0008810018556178899</v>
+        <v>0.01374967983519188</v>
       </c>
       <c r="D26">
-        <v>-0.03203683776690387</v>
+        <v>0.007878649587653332</v>
       </c>
       <c r="E26">
-        <v>-0.04809586370936896</v>
+        <v>-0.006077927858412106</v>
       </c>
       <c r="F26">
-        <v>-0.05827421776419302</v>
+        <v>-0.00624994318573108</v>
       </c>
       <c r="G26">
-        <v>0.03144965168253822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0358647709229773</v>
+      </c>
+      <c r="H26">
+        <v>-0.003997299694351556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07093006329507232</v>
+        <v>0.03163642037868736</v>
       </c>
       <c r="C27">
-        <v>-0.05175776861807807</v>
+        <v>-0.02124225108497413</v>
       </c>
       <c r="D27">
-        <v>0.007434843166234325</v>
+        <v>0.0008950513816755482</v>
       </c>
       <c r="E27">
-        <v>-0.04936026708784659</v>
+        <v>0.003004214019274455</v>
       </c>
       <c r="F27">
-        <v>-0.06001055097574785</v>
+        <v>-0.02424545088513372</v>
       </c>
       <c r="G27">
-        <v>0.05730812520214196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02628353303608351</v>
+      </c>
+      <c r="H27">
+        <v>-0.001616802973460261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07625499880240084</v>
+        <v>0.1100955536611322</v>
       </c>
       <c r="C28">
-        <v>-0.07427247255831419</v>
+        <v>-0.05081362775246023</v>
       </c>
       <c r="D28">
-        <v>0.03788678329237079</v>
+        <v>-0.2156192864746664</v>
       </c>
       <c r="E28">
-        <v>0.1853701031545133</v>
+        <v>-0.01249832619929204</v>
       </c>
       <c r="F28">
-        <v>-0.07143185164297781</v>
+        <v>0.1279620867046282</v>
       </c>
       <c r="G28">
-        <v>0.0224258622373315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02182102451169642</v>
+      </c>
+      <c r="H28">
+        <v>0.002709610739575929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01963772324337984</v>
+        <v>0.02076601827996979</v>
       </c>
       <c r="C29">
-        <v>-0.02194083306693489</v>
+        <v>-0.007437736752694306</v>
       </c>
       <c r="D29">
-        <v>0.003098023193685585</v>
+        <v>0.003498362022196011</v>
       </c>
       <c r="E29">
-        <v>-0.05901074780309858</v>
+        <v>0.007771046136501872</v>
       </c>
       <c r="F29">
-        <v>-0.05137553414361857</v>
+        <v>-0.02936215505852408</v>
       </c>
       <c r="G29">
-        <v>0.05584927571635336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03305930210133137</v>
+      </c>
+      <c r="H29">
+        <v>0.01576705874555812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08068606547361841</v>
+        <v>0.06008964281024017</v>
       </c>
       <c r="C30">
-        <v>-0.05789004129286909</v>
+        <v>-0.01332453428655964</v>
       </c>
       <c r="D30">
-        <v>-0.03332067849589403</v>
+        <v>0.04471927072459458</v>
       </c>
       <c r="E30">
-        <v>-0.1016443436618144</v>
+        <v>-0.04137362922134681</v>
       </c>
       <c r="F30">
-        <v>-0.07679207872846598</v>
+        <v>-0.07910493771096223</v>
       </c>
       <c r="G30">
-        <v>0.02732629919007112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06912660797701142</v>
+      </c>
+      <c r="H30">
+        <v>-0.04949216502066579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05616166328295342</v>
+        <v>0.05098205204387442</v>
       </c>
       <c r="C31">
-        <v>-0.0229696547231653</v>
+        <v>-0.02774832849593207</v>
       </c>
       <c r="D31">
-        <v>-0.04367236956432585</v>
+        <v>0.01572175563892239</v>
       </c>
       <c r="E31">
-        <v>-0.03272829270899909</v>
+        <v>-0.01216828259336851</v>
       </c>
       <c r="F31">
-        <v>-0.03840716137166324</v>
+        <v>-0.02222374974887707</v>
       </c>
       <c r="G31">
-        <v>0.08310276705311836</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01637399163899916</v>
+      </c>
+      <c r="H31">
+        <v>0.01349355441491908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01296313076986599</v>
+        <v>0.005885465227389896</v>
       </c>
       <c r="C32">
-        <v>-0.02067588089666494</v>
+        <v>-0.01580079922388794</v>
       </c>
       <c r="D32">
-        <v>0.008019423192819349</v>
+        <v>-0.002676338463929995</v>
       </c>
       <c r="E32">
-        <v>-0.08345121977229797</v>
+        <v>0.01911579953375086</v>
       </c>
       <c r="F32">
-        <v>-0.0711450826193645</v>
+        <v>-0.04614812561986683</v>
       </c>
       <c r="G32">
-        <v>0.0439484015436056</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04222451376690389</v>
+      </c>
+      <c r="H32">
+        <v>-0.04245351675969876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04847032797648515</v>
+        <v>0.0386147343367414</v>
       </c>
       <c r="C33">
-        <v>-0.004101396305225217</v>
+        <v>-0.01008620566829513</v>
       </c>
       <c r="D33">
-        <v>-0.0394908249501494</v>
+        <v>0.02867261952382104</v>
       </c>
       <c r="E33">
-        <v>-0.0686098000273111</v>
+        <v>-0.02403955003554886</v>
       </c>
       <c r="F33">
-        <v>-0.08966378683978712</v>
+        <v>-0.01714689552709445</v>
       </c>
       <c r="G33">
-        <v>0.04554733957245986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05726340909875304</v>
+      </c>
+      <c r="H33">
+        <v>-0.02355720524314829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02841032151672201</v>
+        <v>0.02372892628315844</v>
       </c>
       <c r="C34">
-        <v>-0.01725222755589263</v>
+        <v>-0.02343665312460707</v>
       </c>
       <c r="D34">
-        <v>-0.008656998450219356</v>
+        <v>0.02511890425112975</v>
       </c>
       <c r="E34">
-        <v>-0.03869283085783783</v>
+        <v>0.003458384695522557</v>
       </c>
       <c r="F34">
-        <v>-0.04470083395030912</v>
+        <v>-0.02889593920159407</v>
       </c>
       <c r="G34">
-        <v>0.009573772430171166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02551463146783584</v>
+      </c>
+      <c r="H34">
+        <v>-0.02985983595484383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01265106424769052</v>
+        <v>0.01855386035565854</v>
       </c>
       <c r="C36">
-        <v>-0.01018263370498409</v>
+        <v>0.0004626993421068428</v>
       </c>
       <c r="D36">
-        <v>0.0006677450430102209</v>
+        <v>-0.001444811368823456</v>
       </c>
       <c r="E36">
-        <v>-0.03127757585374959</v>
+        <v>0.002771261156023583</v>
       </c>
       <c r="F36">
-        <v>-0.03428294769041271</v>
+        <v>-0.007425405205367734</v>
       </c>
       <c r="G36">
-        <v>0.03216459743640742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02250883548825698</v>
+      </c>
+      <c r="H36">
+        <v>-2.3851081701526e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005713875543589104</v>
+        <v>0.01253069441990078</v>
       </c>
       <c r="C38">
-        <v>0.002355032138611541</v>
+        <v>-0.01816151900212884</v>
       </c>
       <c r="D38">
-        <v>0.01559176197710471</v>
+        <v>-0.0007340294819264827</v>
       </c>
       <c r="E38">
-        <v>0.005655266201183287</v>
+        <v>0.006977855374629019</v>
       </c>
       <c r="F38">
-        <v>-0.008840406082823627</v>
+        <v>-0.00993815112142326</v>
       </c>
       <c r="G38">
-        <v>-0.00241284720876193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02505875336308799</v>
+      </c>
+      <c r="H38">
+        <v>-0.02208556532660911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03607357111284708</v>
+        <v>0.02647951451066436</v>
       </c>
       <c r="C39">
-        <v>-0.02323497062385937</v>
+        <v>-0.00979980747403284</v>
       </c>
       <c r="D39">
-        <v>-0.02544663862422811</v>
+        <v>0.06005557891714536</v>
       </c>
       <c r="E39">
-        <v>-0.03714506898792938</v>
+        <v>-0.006140874833265228</v>
       </c>
       <c r="F39">
-        <v>-0.04832061405359235</v>
+        <v>-0.05155136260816402</v>
       </c>
       <c r="G39">
-        <v>0.0192661424145357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04767195319280564</v>
+      </c>
+      <c r="H39">
+        <v>-0.05318955492848623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02915151973732779</v>
+        <v>0.03118505134557828</v>
       </c>
       <c r="C40">
-        <v>-0.03824447622875728</v>
+        <v>-0.009320648239612137</v>
       </c>
       <c r="D40">
-        <v>-0.04680412191069067</v>
+        <v>0.01895661055301</v>
       </c>
       <c r="E40">
-        <v>-0.0530211147086901</v>
+        <v>-0.02034718798314644</v>
       </c>
       <c r="F40">
-        <v>-0.07797009395622799</v>
+        <v>-0.03967483171695262</v>
       </c>
       <c r="G40">
-        <v>0.07419129377250912</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03652708949319461</v>
+      </c>
+      <c r="H40">
+        <v>-0.05208455152405972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00411443349337258</v>
+        <v>0.006734204567818817</v>
       </c>
       <c r="C41">
-        <v>0.007820695744757101</v>
+        <v>0.0003823604647017887</v>
       </c>
       <c r="D41">
-        <v>-0.005671714083539221</v>
+        <v>-0.006268962000442761</v>
       </c>
       <c r="E41">
-        <v>-0.01937700872383101</v>
+        <v>-0.0007596728632217109</v>
       </c>
       <c r="F41">
-        <v>-0.01959227688466414</v>
+        <v>0.00520327997351143</v>
       </c>
       <c r="G41">
-        <v>0.05991832816891328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007801597606924791</v>
+      </c>
+      <c r="H41">
+        <v>0.01688172334145269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.4024631165048521</v>
+        <v>0.2422837101956839</v>
       </c>
       <c r="C42">
-        <v>0.8637182448702687</v>
+        <v>0.04277086995830148</v>
       </c>
       <c r="D42">
-        <v>-0.2074665600676184</v>
+        <v>0.6129202812689556</v>
       </c>
       <c r="E42">
-        <v>0.1254478108888064</v>
+        <v>-0.127506315734454</v>
       </c>
       <c r="F42">
-        <v>0.02012707305465177</v>
+        <v>0.7225988168089956</v>
       </c>
       <c r="G42">
-        <v>0.001189945745490084</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.07849954226314849</v>
+      </c>
+      <c r="H42">
+        <v>-0.03200434371019559</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01088908486802693</v>
+        <v>0.00431807841120721</v>
       </c>
       <c r="C43">
-        <v>0.004269074955680041</v>
+        <v>0.003245291547390413</v>
       </c>
       <c r="D43">
-        <v>-0.01087210766476213</v>
+        <v>-0.008099588068678656</v>
       </c>
       <c r="E43">
-        <v>-0.02103584384515035</v>
+        <v>-0.004766060819779379</v>
       </c>
       <c r="F43">
-        <v>-0.03293042444791545</v>
+        <v>0.009171936297491608</v>
       </c>
       <c r="G43">
-        <v>0.05421685664609618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01507843520840881</v>
+      </c>
+      <c r="H43">
+        <v>0.009951689147820224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01902319443758461</v>
+        <v>0.01189082384142415</v>
       </c>
       <c r="C44">
-        <v>-0.00474443829512168</v>
+        <v>-0.00218436430249534</v>
       </c>
       <c r="D44">
-        <v>-0.01869365902872874</v>
+        <v>0.02636681961637873</v>
       </c>
       <c r="E44">
-        <v>-0.06831425065930799</v>
+        <v>0.002272622072710384</v>
       </c>
       <c r="F44">
-        <v>-0.1803611158845844</v>
+        <v>-0.01048985589634779</v>
       </c>
       <c r="G44">
-        <v>0.1796447968286505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08507096424850676</v>
+      </c>
+      <c r="H44">
+        <v>-0.02092257360519279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01575563420019848</v>
+        <v>0.02109900169552955</v>
       </c>
       <c r="C46">
-        <v>-0.02052792055634338</v>
+        <v>-0.003400608590320025</v>
       </c>
       <c r="D46">
-        <v>-0.01392311977790684</v>
+        <v>0.005958955743515422</v>
       </c>
       <c r="E46">
-        <v>-0.05485336869109288</v>
+        <v>-0.004589077542843305</v>
       </c>
       <c r="F46">
-        <v>-0.05238972907445962</v>
+        <v>-0.03448912001203421</v>
       </c>
       <c r="G46">
-        <v>0.04059560312745304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0472578875714735</v>
+      </c>
+      <c r="H46">
+        <v>0.01288667901483498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09149534719195283</v>
+        <v>0.06969926491987598</v>
       </c>
       <c r="C47">
-        <v>-0.03714232224290676</v>
+        <v>-0.04883284442174336</v>
       </c>
       <c r="D47">
-        <v>-0.02295763792607446</v>
+        <v>0.01904005740954353</v>
       </c>
       <c r="E47">
-        <v>-0.04800030634316858</v>
+        <v>-0.008955178882138929</v>
       </c>
       <c r="F47">
-        <v>0.00171342767181066</v>
+        <v>-0.03295909361843839</v>
       </c>
       <c r="G47">
-        <v>0.07173194364199849</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01662921329790702</v>
+      </c>
+      <c r="H47">
+        <v>0.02918093750871726</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.007543854147797137</v>
+        <v>0.01598631715547125</v>
       </c>
       <c r="C48">
-        <v>-0.005761935187607534</v>
+        <v>-0.00899317190214468</v>
       </c>
       <c r="D48">
-        <v>-0.0103494852973341</v>
+        <v>0.004264022788671859</v>
       </c>
       <c r="E48">
-        <v>-0.04578391978339984</v>
+        <v>-0.001226016625732988</v>
       </c>
       <c r="F48">
-        <v>-0.04965460804907264</v>
+        <v>-0.01254456287683393</v>
       </c>
       <c r="G48">
-        <v>0.009045674891960821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02767014171498481</v>
+      </c>
+      <c r="H48">
+        <v>-0.005953979661590453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08393092217086902</v>
+        <v>0.06428682784655321</v>
       </c>
       <c r="C50">
-        <v>-0.02273853940094876</v>
+        <v>-0.04205051501798105</v>
       </c>
       <c r="D50">
-        <v>-0.03595214415605567</v>
+        <v>0.03362738322597316</v>
       </c>
       <c r="E50">
-        <v>-0.05178475048267418</v>
+        <v>0.004165745542005623</v>
       </c>
       <c r="F50">
-        <v>-0.02049768810167087</v>
+        <v>-0.03255560804685473</v>
       </c>
       <c r="G50">
-        <v>0.009490625577002108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01548354690816715</v>
+      </c>
+      <c r="H50">
+        <v>0.0224916138393082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04069706429286441</v>
+        <v>0.02637093642856959</v>
       </c>
       <c r="C51">
-        <v>0.0002526156139142092</v>
+        <v>-0.007018255559376483</v>
       </c>
       <c r="D51">
-        <v>-0.04349238113066254</v>
+        <v>-0.003106128428297582</v>
       </c>
       <c r="E51">
-        <v>-0.02521408749229323</v>
+        <v>-0.01280706502916064</v>
       </c>
       <c r="F51">
-        <v>-0.1575351153967042</v>
+        <v>0.01770236064734462</v>
       </c>
       <c r="G51">
-        <v>0.07353514414116062</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.08399762159747856</v>
+      </c>
+      <c r="H51">
+        <v>-0.02942728755856244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1022673481800025</v>
+        <v>0.09112781699639014</v>
       </c>
       <c r="C53">
-        <v>-0.04960660644607879</v>
+        <v>-0.06280714397453342</v>
       </c>
       <c r="D53">
-        <v>-0.04015448829317658</v>
+        <v>0.04210733892758259</v>
       </c>
       <c r="E53">
-        <v>-0.06098692932994534</v>
+        <v>-0.008958918516856139</v>
       </c>
       <c r="F53">
-        <v>0.06133509571443839</v>
+        <v>-0.0665228400252163</v>
       </c>
       <c r="G53">
-        <v>0.03166953271748946</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05963871139462327</v>
+      </c>
+      <c r="H53">
+        <v>0.03518557452163296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02181952305821771</v>
+        <v>0.02131240985930987</v>
       </c>
       <c r="C54">
-        <v>-0.03883235049637739</v>
+        <v>-0.01874019072958523</v>
       </c>
       <c r="D54">
-        <v>-0.000639279904867446</v>
+        <v>-0.02344781196501896</v>
       </c>
       <c r="E54">
-        <v>-0.03690005689737597</v>
+        <v>0.003303792092161937</v>
       </c>
       <c r="F54">
-        <v>-0.07142297972446189</v>
+        <v>-0.01314893676074568</v>
       </c>
       <c r="G54">
-        <v>0.0610519463868206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04196219081916073</v>
+      </c>
+      <c r="H54">
+        <v>0.02101093342191944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09996276638703001</v>
+        <v>0.0786252257064827</v>
       </c>
       <c r="C55">
-        <v>-0.03407652985649105</v>
+        <v>-0.05503230754645592</v>
       </c>
       <c r="D55">
-        <v>0.003918096272849508</v>
+        <v>0.0433451915673051</v>
       </c>
       <c r="E55">
-        <v>-0.05933721531109341</v>
+        <v>0.003943503289589094</v>
       </c>
       <c r="F55">
-        <v>0.06134233198880141</v>
+        <v>-0.05573963281037747</v>
       </c>
       <c r="G55">
-        <v>0.05038759646255591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03874588628390981</v>
+      </c>
+      <c r="H55">
+        <v>0.05085799788615144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1401324440986128</v>
+        <v>0.1186355589715112</v>
       </c>
       <c r="C56">
-        <v>-0.07660931120953203</v>
+        <v>-0.08885961047137628</v>
       </c>
       <c r="D56">
-        <v>-0.02177627527656649</v>
+        <v>0.05472179863404985</v>
       </c>
       <c r="E56">
-        <v>-0.07856520081436731</v>
+        <v>-0.004956307172327231</v>
       </c>
       <c r="F56">
-        <v>0.1584670704552342</v>
+        <v>-0.09288393898773555</v>
       </c>
       <c r="G56">
-        <v>0.01360639724726474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1009835847326169</v>
+      </c>
+      <c r="H56">
+        <v>0.02670040195407898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04082273731266307</v>
+        <v>0.04257049248572424</v>
       </c>
       <c r="C57">
-        <v>-0.01720837127516528</v>
+        <v>-0.0004043242092440641</v>
       </c>
       <c r="D57">
-        <v>-0.02756729153421001</v>
+        <v>0.01747919697529613</v>
       </c>
       <c r="E57">
-        <v>-0.02546730218918802</v>
+        <v>-0.01275996772730598</v>
       </c>
       <c r="F57">
-        <v>-0.07898574485072692</v>
+        <v>-0.02635571832926909</v>
       </c>
       <c r="G57">
-        <v>0.03383109665157861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0655867382255271</v>
+      </c>
+      <c r="H57">
+        <v>-0.01500706361593105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.207954194873642</v>
+        <v>0.1534580920896303</v>
       </c>
       <c r="C58">
-        <v>-0.07090842323100269</v>
+        <v>-0.08757460628068817</v>
       </c>
       <c r="D58">
-        <v>-0.107713867801509</v>
+        <v>0.1104679810495641</v>
       </c>
       <c r="E58">
-        <v>-0.1974147886777891</v>
+        <v>-0.1293804323222427</v>
       </c>
       <c r="F58">
-        <v>-0.3034319994729968</v>
+        <v>-0.06445705186534691</v>
       </c>
       <c r="G58">
-        <v>-0.326354173494149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6807571574420884</v>
+      </c>
+      <c r="H58">
+        <v>0.5561670949379485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07407537997102333</v>
+        <v>0.111317760142687</v>
       </c>
       <c r="C59">
-        <v>-0.09431402562338256</v>
+        <v>-0.05836267726688097</v>
       </c>
       <c r="D59">
-        <v>0.03153229281329298</v>
+        <v>-0.2104944974152803</v>
       </c>
       <c r="E59">
-        <v>0.1456620066048658</v>
+        <v>-0.02814032897621952</v>
       </c>
       <c r="F59">
-        <v>-0.05639618668174273</v>
+        <v>0.1056661581967378</v>
       </c>
       <c r="G59">
-        <v>0.009270191818349007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0238822885133608</v>
+      </c>
+      <c r="H59">
+        <v>-0.02483217636767621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1636769229927211</v>
+        <v>0.1586204845315368</v>
       </c>
       <c r="C60">
-        <v>-0.07746510207373598</v>
+        <v>-0.07890275089910602</v>
       </c>
       <c r="D60">
-        <v>-0.06127649963784969</v>
+        <v>-0.009362075833340443</v>
       </c>
       <c r="E60">
-        <v>-0.02091135640593798</v>
+        <v>-0.05720850585485552</v>
       </c>
       <c r="F60">
-        <v>-0.09725323310504143</v>
+        <v>-0.07010587439270057</v>
       </c>
       <c r="G60">
-        <v>-0.2832694611269729</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1226761150264114</v>
+      </c>
+      <c r="H60">
+        <v>-0.3551889885267196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01951512084094848</v>
+        <v>0.02235129753308457</v>
       </c>
       <c r="C61">
-        <v>-0.01096659550289921</v>
+        <v>-0.01291293904007694</v>
       </c>
       <c r="D61">
-        <v>-0.002380354151166915</v>
+        <v>0.03128705751664131</v>
       </c>
       <c r="E61">
-        <v>-0.02229873815204218</v>
+        <v>0.0006920780852629734</v>
       </c>
       <c r="F61">
-        <v>-0.04217681420565677</v>
+        <v>-0.03607509817948584</v>
       </c>
       <c r="G61">
-        <v>0.004267908823890842</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03087218558164601</v>
+      </c>
+      <c r="H61">
+        <v>-0.03936745642440963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0146577260315766</v>
+        <v>0.01410718790125189</v>
       </c>
       <c r="C63">
-        <v>-0.01707763303038555</v>
+        <v>-0.002137036870171265</v>
       </c>
       <c r="D63">
-        <v>-0.01150838127190379</v>
+        <v>0.005275634429337099</v>
       </c>
       <c r="E63">
-        <v>-0.0431667894125282</v>
+        <v>0.0007433887598607068</v>
       </c>
       <c r="F63">
-        <v>-0.01891878583419586</v>
+        <v>-0.02231221928137468</v>
       </c>
       <c r="G63">
-        <v>0.03272696659557747</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01684296008671709</v>
+      </c>
+      <c r="H63">
+        <v>0.006672559713401575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02877354120023557</v>
+        <v>0.03854691507151441</v>
       </c>
       <c r="C64">
-        <v>-0.02129690527006047</v>
+        <v>-0.02068189239254678</v>
       </c>
       <c r="D64">
-        <v>0.02129709530737195</v>
+        <v>0.0262325934748612</v>
       </c>
       <c r="E64">
-        <v>-0.0476882094151923</v>
+        <v>0.01078534339777657</v>
       </c>
       <c r="F64">
-        <v>-0.02300226091173882</v>
+        <v>-0.03239194231512659</v>
       </c>
       <c r="G64">
-        <v>0.06258799955884466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.009220541898467372</v>
+      </c>
+      <c r="H64">
+        <v>-0.03230975465081674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.009632608505333245</v>
+        <v>0.03513807490333218</v>
       </c>
       <c r="C65">
-        <v>0.0009969707348178444</v>
+        <v>-0.005075547861380673</v>
       </c>
       <c r="D65">
-        <v>-0.008871455186917756</v>
+        <v>0.03373887240144734</v>
       </c>
       <c r="E65">
-        <v>-0.003120078668591898</v>
+        <v>0.002705696712833519</v>
       </c>
       <c r="F65">
-        <v>-0.00859919421424523</v>
+        <v>-0.04073338646741964</v>
       </c>
       <c r="G65">
-        <v>-0.01883416668188063</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001105211154725651</v>
+      </c>
+      <c r="H65">
+        <v>-0.06148170499435358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03794347745914494</v>
+        <v>0.03333563896049845</v>
       </c>
       <c r="C66">
-        <v>-0.02628949540535689</v>
+        <v>-0.01728841614445899</v>
       </c>
       <c r="D66">
-        <v>-0.02007510180977665</v>
+        <v>0.06604192137772483</v>
       </c>
       <c r="E66">
-        <v>-0.04784635700632001</v>
+        <v>-0.0127841803644767</v>
       </c>
       <c r="F66">
-        <v>-0.04654594045191825</v>
+        <v>-0.0718747467955459</v>
       </c>
       <c r="G66">
-        <v>0.009655295031912993</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04140267728366903</v>
+      </c>
+      <c r="H66">
+        <v>-0.06443754017700624</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02497692855662549</v>
+        <v>0.03111695513484692</v>
       </c>
       <c r="C67">
-        <v>-0.009495878111094929</v>
+        <v>-0.02591066703537461</v>
       </c>
       <c r="D67">
-        <v>0.01560178529469017</v>
+        <v>-0.0102959286994237</v>
       </c>
       <c r="E67">
-        <v>0.0297581768354256</v>
+        <v>0.002321238931923656</v>
       </c>
       <c r="F67">
-        <v>-0.01802619532207164</v>
+        <v>-0.01037754753189635</v>
       </c>
       <c r="G67">
-        <v>-0.005550651275868974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01545094936218671</v>
+      </c>
+      <c r="H67">
+        <v>-0.03454948213728469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08705064363940228</v>
+        <v>0.1146566341707084</v>
       </c>
       <c r="C68">
-        <v>-0.07954625905527815</v>
+        <v>-0.03679444455279376</v>
       </c>
       <c r="D68">
-        <v>0.04527792025024906</v>
+        <v>-0.1965500266255851</v>
       </c>
       <c r="E68">
-        <v>0.1806410098741798</v>
+        <v>-0.0228175328796546</v>
       </c>
       <c r="F68">
-        <v>-0.01342591165920608</v>
+        <v>0.1215129813187181</v>
       </c>
       <c r="G68">
-        <v>-0.04246783275191211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01750796113246431</v>
+      </c>
+      <c r="H68">
+        <v>0.04614228628298617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07104155524518609</v>
+        <v>0.05474547628933085</v>
       </c>
       <c r="C69">
-        <v>-0.03734597117476316</v>
+        <v>-0.04347629882486548</v>
       </c>
       <c r="D69">
-        <v>-0.02488698292834769</v>
+        <v>0.01624827482444962</v>
       </c>
       <c r="E69">
-        <v>-0.01257734685565714</v>
+        <v>-0.009551178033930942</v>
       </c>
       <c r="F69">
-        <v>-0.01879157265007173</v>
+        <v>-0.03116772006702407</v>
       </c>
       <c r="G69">
-        <v>0.05743231253999222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.004512207298595073</v>
+      </c>
+      <c r="H69">
+        <v>0.008965288607136775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1005498521588323</v>
+        <v>0.1114079216848926</v>
       </c>
       <c r="C71">
-        <v>-0.08274689153711837</v>
+        <v>-0.04571011282585261</v>
       </c>
       <c r="D71">
-        <v>0.02013979214135255</v>
+        <v>-0.1851202621446592</v>
       </c>
       <c r="E71">
-        <v>0.2290551606362164</v>
+        <v>-0.02676385265809803</v>
       </c>
       <c r="F71">
-        <v>-0.04813478812315586</v>
+        <v>0.131568595105582</v>
       </c>
       <c r="G71">
-        <v>0.01188158902722911</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02284460826577036</v>
+      </c>
+      <c r="H71">
+        <v>0.01794953956784452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1025615836671324</v>
+        <v>0.08344094694141914</v>
       </c>
       <c r="C72">
-        <v>-0.1179325501574626</v>
+        <v>-0.06711468942243745</v>
       </c>
       <c r="D72">
-        <v>-0.01739153539956306</v>
+        <v>0.04426006656039588</v>
       </c>
       <c r="E72">
-        <v>-0.08948550955743137</v>
+        <v>-0.01590744710858275</v>
       </c>
       <c r="F72">
-        <v>-0.06132811543759389</v>
+        <v>-0.1271284007214406</v>
       </c>
       <c r="G72">
-        <v>-0.1503904542088175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08038381130773795</v>
+      </c>
+      <c r="H72">
+        <v>-0.142705279472639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2428403898797062</v>
+        <v>0.2239467517374242</v>
       </c>
       <c r="C73">
-        <v>-0.1121690388417436</v>
+        <v>-0.1053297628437535</v>
       </c>
       <c r="D73">
-        <v>-0.06058569668315732</v>
+        <v>0.01276421932399842</v>
       </c>
       <c r="E73">
-        <v>0.02756273857436086</v>
+        <v>-0.09284772081797618</v>
       </c>
       <c r="F73">
-        <v>-0.2085970870965811</v>
+        <v>-0.07980457273376936</v>
       </c>
       <c r="G73">
-        <v>-0.4478407685313706</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.183771265552131</v>
+      </c>
+      <c r="H73">
+        <v>-0.5106846860803573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1186793726275978</v>
+        <v>0.1055772400788828</v>
       </c>
       <c r="C74">
-        <v>-0.04033775215039533</v>
+        <v>-0.07830867228159688</v>
       </c>
       <c r="D74">
-        <v>-0.02553123656400443</v>
+        <v>0.05342187519213742</v>
       </c>
       <c r="E74">
-        <v>-0.03768798015755381</v>
+        <v>-0.01117713814559772</v>
       </c>
       <c r="F74">
-        <v>0.1183592127746639</v>
+        <v>-0.07292293186302264</v>
       </c>
       <c r="G74">
-        <v>0.01093391423137275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.09032076992225543</v>
+      </c>
+      <c r="H74">
+        <v>0.002123114649169259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2167945103092057</v>
+        <v>0.2105386468166226</v>
       </c>
       <c r="C75">
-        <v>-0.1161432575288399</v>
+        <v>-0.1586663858874614</v>
       </c>
       <c r="D75">
-        <v>-0.06659082232067536</v>
+        <v>0.06364302769694562</v>
       </c>
       <c r="E75">
-        <v>-0.08788871304242438</v>
+        <v>-0.03835593728415655</v>
       </c>
       <c r="F75">
-        <v>0.181576055052135</v>
+        <v>-0.1431359709068584</v>
       </c>
       <c r="G75">
-        <v>0.08241769064091832</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.160196245222873</v>
+      </c>
+      <c r="H75">
+        <v>0.09178773834119504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.256047556710457</v>
+        <v>0.2017461668052001</v>
       </c>
       <c r="C76">
-        <v>-0.1321184253041264</v>
+        <v>-0.1556961239408383</v>
       </c>
       <c r="D76">
-        <v>-0.008481554736164276</v>
+        <v>0.06574513696957789</v>
       </c>
       <c r="E76">
-        <v>-0.07400435463917387</v>
+        <v>0.002588095819921055</v>
       </c>
       <c r="F76">
-        <v>0.2080322868410193</v>
+        <v>-0.1480438015849823</v>
       </c>
       <c r="G76">
-        <v>0.08485477658214705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1768458055968674</v>
+      </c>
+      <c r="H76">
+        <v>0.100623093803352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1359737225340446</v>
+        <v>0.07660479223464634</v>
       </c>
       <c r="C77">
-        <v>0.02097101321732403</v>
+        <v>-0.02932654729716495</v>
       </c>
       <c r="D77">
-        <v>-0.05878790315063882</v>
+        <v>0.07752903418936029</v>
       </c>
       <c r="E77">
-        <v>-0.09522556617212377</v>
+        <v>-0.0157909842319559</v>
       </c>
       <c r="F77">
-        <v>-0.1972914155903212</v>
+        <v>-0.004240017632824034</v>
       </c>
       <c r="G77">
-        <v>0.1233412400681634</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1210486486518561</v>
+      </c>
+      <c r="H77">
+        <v>0.05261365870641292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05214937166349241</v>
+        <v>0.03735886226174921</v>
       </c>
       <c r="C78">
-        <v>-0.0115614814606383</v>
+        <v>-0.02055010419778958</v>
       </c>
       <c r="D78">
-        <v>-0.02359997565549487</v>
+        <v>0.04896615033592831</v>
       </c>
       <c r="E78">
-        <v>-0.107653595306118</v>
+        <v>0.001157308478320604</v>
       </c>
       <c r="F78">
-        <v>-0.04090385205440868</v>
+        <v>-0.05178966943535426</v>
       </c>
       <c r="G78">
-        <v>0.0581250414498882</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05055405764933196</v>
+      </c>
+      <c r="H78">
+        <v>-0.03445636615124033</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2117558278442283</v>
+        <v>0.1758210454133105</v>
       </c>
       <c r="C80">
-        <v>0.1649831701816971</v>
+        <v>-0.09957038522752536</v>
       </c>
       <c r="D80">
-        <v>0.9277609338940865</v>
+        <v>0.04942311014440392</v>
       </c>
       <c r="E80">
-        <v>-0.209612555698961</v>
+        <v>0.9594646730213257</v>
       </c>
       <c r="F80">
-        <v>-0.03434396727071158</v>
+        <v>0.09230995021967629</v>
       </c>
       <c r="G80">
-        <v>-0.04872071137964527</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.101483462376837</v>
+      </c>
+      <c r="H80">
+        <v>-0.007803431097269924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1526533749380459</v>
+        <v>0.1426942258230662</v>
       </c>
       <c r="C81">
-        <v>-0.10275711713475</v>
+        <v>-0.1076366188120542</v>
       </c>
       <c r="D81">
-        <v>-0.02398312875187577</v>
+        <v>0.03922516247306732</v>
       </c>
       <c r="E81">
-        <v>-0.06541767522381498</v>
+        <v>-0.01135295617980592</v>
       </c>
       <c r="F81">
-        <v>0.1933059221795471</v>
+        <v>-0.1050711036746584</v>
       </c>
       <c r="G81">
-        <v>0.01471084802101567</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1176849190050696</v>
+      </c>
+      <c r="H81">
+        <v>0.07926590572567054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05152518766352097</v>
+        <v>0.03826601317752568</v>
       </c>
       <c r="C83">
-        <v>0.01079541523300918</v>
+        <v>-0.01743416465004378</v>
       </c>
       <c r="D83">
-        <v>-0.03539244644620899</v>
+        <v>0.02091536830254504</v>
       </c>
       <c r="E83">
-        <v>-0.04590369071259959</v>
+        <v>-0.01414151539398194</v>
       </c>
       <c r="F83">
-        <v>-0.07730617952136536</v>
+        <v>-0.01310955943611159</v>
       </c>
       <c r="G83">
-        <v>0.06247340741826979</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05650544304221281</v>
+      </c>
+      <c r="H83">
+        <v>-0.02339956660021467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2265860719557318</v>
+        <v>0.2029191828497031</v>
       </c>
       <c r="C85">
-        <v>-0.1008367724583939</v>
+        <v>-0.1388175885801107</v>
       </c>
       <c r="D85">
-        <v>-0.03465317424562981</v>
+        <v>0.08493002265068088</v>
       </c>
       <c r="E85">
-        <v>-0.06283635780456878</v>
+        <v>-0.02662431002007221</v>
       </c>
       <c r="F85">
-        <v>0.1993778228503758</v>
+        <v>-0.1346308307406617</v>
       </c>
       <c r="G85">
-        <v>0.07391109137943322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1653003328153707</v>
+      </c>
+      <c r="H85">
+        <v>0.06675312714428296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002682373916592613</v>
+        <v>0.007414616228655932</v>
       </c>
       <c r="C86">
-        <v>0.008323657301162803</v>
+        <v>0.00190145788451279</v>
       </c>
       <c r="D86">
-        <v>-0.002583059174671154</v>
+        <v>0.01362988890370592</v>
       </c>
       <c r="E86">
-        <v>-0.07310341345244532</v>
+        <v>-0.005136483573042631</v>
       </c>
       <c r="F86">
-        <v>-0.07125539551016707</v>
+        <v>-0.01233978973820437</v>
       </c>
       <c r="G86">
-        <v>0.0545654523348118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07381706836663107</v>
+      </c>
+      <c r="H86">
+        <v>-0.04632564178344463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03044753826528504</v>
+        <v>0.02755269903891209</v>
       </c>
       <c r="C87">
-        <v>-0.01010798251370321</v>
+        <v>-0.01018794644602204</v>
       </c>
       <c r="D87">
-        <v>-0.006468511925109987</v>
+        <v>0.02384792912205019</v>
       </c>
       <c r="E87">
-        <v>-0.04283633777578206</v>
+        <v>-0.001672908522860794</v>
       </c>
       <c r="F87">
-        <v>-0.06846215313288928</v>
+        <v>-0.02953362495698552</v>
       </c>
       <c r="G87">
-        <v>0.01170462186776314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08945652772506575</v>
+      </c>
+      <c r="H87">
+        <v>-0.0331736536143702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.008442711479734017</v>
+        <v>0.03908257865198411</v>
       </c>
       <c r="C88">
-        <v>-0.02117077396202454</v>
+        <v>0.001035914098422995</v>
       </c>
       <c r="D88">
-        <v>0.02154002346777517</v>
+        <v>-0.01116038693928553</v>
       </c>
       <c r="E88">
-        <v>0.001133441617948708</v>
+        <v>0.005891710687513282</v>
       </c>
       <c r="F88">
-        <v>-0.03296128935998476</v>
+        <v>-0.01173766489018348</v>
       </c>
       <c r="G88">
-        <v>0.08758424336432143</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003890376858789213</v>
+      </c>
+      <c r="H88">
+        <v>-0.0143607707506975</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1185152476801687</v>
+        <v>0.1770558174665523</v>
       </c>
       <c r="C89">
-        <v>-0.1004802889978846</v>
+        <v>-0.06785888978669991</v>
       </c>
       <c r="D89">
-        <v>0.0274582707201653</v>
+        <v>-0.329658430862017</v>
       </c>
       <c r="E89">
-        <v>0.3095987883249935</v>
+        <v>-0.05987400880977146</v>
       </c>
       <c r="F89">
-        <v>-0.1055141432466486</v>
+        <v>0.1972713707038384</v>
       </c>
       <c r="G89">
-        <v>0.04282157715830132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01377021934945804</v>
+      </c>
+      <c r="H89">
+        <v>0.01591663484629999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1128859355459404</v>
+        <v>0.1398673820014097</v>
       </c>
       <c r="C90">
-        <v>-0.1007370688569809</v>
+        <v>-0.05372203012834958</v>
       </c>
       <c r="D90">
-        <v>0.08086858718336039</v>
+        <v>-0.2808892995630254</v>
       </c>
       <c r="E90">
-        <v>0.2794872999222014</v>
+        <v>-0.0326459055743149</v>
       </c>
       <c r="F90">
-        <v>-0.06571802599108263</v>
+        <v>0.1849768141750687</v>
       </c>
       <c r="G90">
-        <v>-0.01659436170487272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02263991852016597</v>
+      </c>
+      <c r="H90">
+        <v>0.03861609750067507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2839295509704754</v>
+        <v>0.2221262333439434</v>
       </c>
       <c r="C91">
-        <v>-0.1040480858007345</v>
+        <v>-0.1641858164648206</v>
       </c>
       <c r="D91">
-        <v>-0.06290807177237417</v>
+        <v>0.07814622974775756</v>
       </c>
       <c r="E91">
-        <v>-0.0479688784024755</v>
+        <v>-0.03306874671482168</v>
       </c>
       <c r="F91">
-        <v>0.2519605053412554</v>
+        <v>-0.1373957806573777</v>
       </c>
       <c r="G91">
-        <v>0.03084233119114444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2164662407280103</v>
+      </c>
+      <c r="H91">
+        <v>0.1223964768556679</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1809933487370867</v>
+        <v>0.1968196348035321</v>
       </c>
       <c r="C92">
-        <v>-0.09325218796292137</v>
+        <v>-0.1392776834942943</v>
       </c>
       <c r="D92">
-        <v>0.1001358358882632</v>
+        <v>-0.2469605832613305</v>
       </c>
       <c r="E92">
-        <v>0.4328410251900762</v>
+        <v>-0.0245021167087037</v>
       </c>
       <c r="F92">
-        <v>-0.118202003055222</v>
+        <v>0.1621182729668316</v>
       </c>
       <c r="G92">
-        <v>0.3445071307353672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03448049477877776</v>
+      </c>
+      <c r="H92">
+        <v>0.1331198091052138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1218646545219702</v>
+        <v>0.1594918324747565</v>
       </c>
       <c r="C93">
-        <v>-0.08484683913550477</v>
+        <v>-0.06848933922150863</v>
       </c>
       <c r="D93">
-        <v>0.08551920720140362</v>
+        <v>-0.3038930826780679</v>
       </c>
       <c r="E93">
-        <v>0.3967624729688731</v>
+        <v>-0.04871183694788585</v>
       </c>
       <c r="F93">
-        <v>-0.02460077089317947</v>
+        <v>0.227855613279492</v>
       </c>
       <c r="G93">
-        <v>-0.02731114798537093</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02925795960181547</v>
+      </c>
+      <c r="H93">
+        <v>-0.01777662144247251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2591802202951622</v>
+        <v>0.2433037996781619</v>
       </c>
       <c r="C94">
-        <v>-0.1310810903022578</v>
+        <v>-0.1574751188810757</v>
       </c>
       <c r="D94">
-        <v>-0.02952749140532438</v>
+        <v>0.05518347544362146</v>
       </c>
       <c r="E94">
-        <v>-0.07484086548649771</v>
+        <v>-0.04756710673230722</v>
       </c>
       <c r="F94">
-        <v>0.3002045728258466</v>
+        <v>-0.150853686806981</v>
       </c>
       <c r="G94">
-        <v>0.00697792681713095</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2300302035446009</v>
+      </c>
+      <c r="H94">
+        <v>0.1280118529560327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09064554728548282</v>
+        <v>0.06565443294373861</v>
       </c>
       <c r="C95">
-        <v>-0.0254910327901762</v>
+        <v>-0.05160380829950961</v>
       </c>
       <c r="D95">
-        <v>-0.0646838649237632</v>
+        <v>0.06852362469830137</v>
       </c>
       <c r="E95">
-        <v>-0.09725995762499137</v>
+        <v>-0.07835737254116942</v>
       </c>
       <c r="F95">
-        <v>-0.06038624116890944</v>
+        <v>-0.03217048075265163</v>
       </c>
       <c r="G95">
-        <v>0.3393580802195054</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06908142950641137</v>
+      </c>
+      <c r="H95">
+        <v>-0.01447867274793935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1828371534280853</v>
+        <v>0.1623899098491101</v>
       </c>
       <c r="C98">
-        <v>-0.05960889157918046</v>
+        <v>-0.1106050812970583</v>
       </c>
       <c r="D98">
-        <v>-0.04592416683730743</v>
+        <v>0.003744866106099841</v>
       </c>
       <c r="E98">
-        <v>0.07160451328629903</v>
+        <v>-0.06334058553079015</v>
       </c>
       <c r="F98">
-        <v>-0.0901420924000097</v>
+        <v>-0.02799405960266437</v>
       </c>
       <c r="G98">
-        <v>-0.284893492142656</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1563212886529396</v>
+      </c>
+      <c r="H98">
+        <v>-0.3631396064942331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003513581024537909</v>
+        <v>0.01415305023334856</v>
       </c>
       <c r="C101">
-        <v>-0.02672480873965105</v>
+        <v>-0.00375843086810808</v>
       </c>
       <c r="D101">
-        <v>-0.01062895281919893</v>
+        <v>0.005177318220743054</v>
       </c>
       <c r="E101">
-        <v>-0.120118227160262</v>
+        <v>0.003158416957308003</v>
       </c>
       <c r="F101">
-        <v>-0.1756108000135084</v>
+        <v>-0.03789369615116536</v>
       </c>
       <c r="G101">
-        <v>-0.02340990874615543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09509314837767913</v>
+      </c>
+      <c r="H101">
+        <v>0.06872583682893312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09554864545076946</v>
+        <v>0.1052174963921409</v>
       </c>
       <c r="C102">
-        <v>-0.02799918222132149</v>
+        <v>-0.06386364154364169</v>
       </c>
       <c r="D102">
-        <v>-0.01449795590377083</v>
+        <v>0.04356630403982967</v>
       </c>
       <c r="E102">
-        <v>-0.08005442295752278</v>
+        <v>-0.00742333834799833</v>
       </c>
       <c r="F102">
-        <v>0.141207390116881</v>
+        <v>-0.07132555547713129</v>
       </c>
       <c r="G102">
-        <v>0.07931415370873461</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09996472945574197</v>
+      </c>
+      <c r="H102">
+        <v>0.0623983587898479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02664077797460575</v>
+        <v>0.02240975399018765</v>
       </c>
       <c r="C103">
-        <v>-0.009512163282379084</v>
+        <v>-0.01465882591746224</v>
       </c>
       <c r="D103">
-        <v>-0.008280261848379872</v>
+        <v>0.0120940598772299</v>
       </c>
       <c r="E103">
-        <v>-0.01763921040451788</v>
+        <v>0.005510233106128228</v>
       </c>
       <c r="F103">
-        <v>0.02635650561844318</v>
+        <v>-0.01797872998123225</v>
       </c>
       <c r="G103">
-        <v>0.03343587794681097</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.009713993450658301</v>
+      </c>
+      <c r="H103">
+        <v>0.008252550440338881</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4819395587217164</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8533035196009741</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06142470474046567</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02163297669592354</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1539578318227064</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03995513190521439</v>
+      </c>
+      <c r="H104">
+        <v>0.0354650747366614</v>
       </c>
     </row>
   </sheetData>
